--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.058528</v>
+        <v>0.1448963333333333</v>
       </c>
       <c r="N2">
-        <v>0.117056</v>
+        <v>0.434689</v>
       </c>
       <c r="O2">
-        <v>0.02254248187867368</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P2">
-        <v>0.02193053370056585</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q2">
-        <v>11.417597670928</v>
+        <v>26.29787416725583</v>
       </c>
       <c r="R2">
-        <v>45.67039068371199</v>
+        <v>157.787245003535</v>
       </c>
       <c r="S2">
-        <v>0.005952580215071251</v>
+        <v>0.1464572543526057</v>
       </c>
       <c r="T2">
-        <v>0.004347303431330739</v>
+        <v>0.1222964099203903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1448963333333333</v>
+        <v>0.0766655</v>
       </c>
       <c r="N3">
-        <v>0.434689</v>
+        <v>0.153331</v>
       </c>
       <c r="O3">
-        <v>0.05580786919855329</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P3">
-        <v>0.08143932616666613</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q3">
-        <v>28.26626636810883</v>
+        <v>13.91435949819125</v>
       </c>
       <c r="R3">
-        <v>169.597598208653</v>
+        <v>55.657437992765</v>
       </c>
       <c r="S3">
-        <v>0.01473665676319657</v>
+        <v>0.07749139246842936</v>
       </c>
       <c r="T3">
-        <v>0.01614376863434363</v>
+        <v>0.04313849862661204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>62.40792233333334</v>
+      </c>
+      <c r="H4">
+        <v>187.223767</v>
+      </c>
+      <c r="I4">
+        <v>0.07700606288633029</v>
+      </c>
+      <c r="J4">
+        <v>0.08532865336765341</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>195.0792385</v>
-      </c>
-      <c r="H4">
-        <v>390.1584769999999</v>
-      </c>
-      <c r="I4">
-        <v>0.2640605522989326</v>
-      </c>
-      <c r="J4">
-        <v>0.1982306263353075</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.392918</v>
+        <v>0.1448963333333333</v>
       </c>
       <c r="N4">
-        <v>4.785836</v>
+        <v>0.434689</v>
       </c>
       <c r="O4">
-        <v>0.921649648922773</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P4">
-        <v>0.896630140132768</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q4">
-        <v>466.8086212329429</v>
+        <v>9.042679117051444</v>
       </c>
       <c r="R4">
-        <v>1867.234484931772</v>
+        <v>81.384112053463</v>
       </c>
       <c r="S4">
-        <v>0.2433713153206648</v>
+        <v>0.05036019060141379</v>
       </c>
       <c r="T4">
-        <v>0.1777395542696331</v>
+        <v>0.06307851264197117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.058528</v>
+        <v>0.0766655</v>
       </c>
       <c r="N5">
-        <v>0.117056</v>
+        <v>0.153331</v>
       </c>
       <c r="O5">
-        <v>0.02254248187867368</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P5">
-        <v>0.02193053370056585</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q5">
-        <v>3.652610878325333</v>
+        <v>4.784534569646167</v>
       </c>
       <c r="R5">
-        <v>21.915665269952</v>
+        <v>28.707207417877</v>
       </c>
       <c r="S5">
-        <v>0.001904293694201104</v>
+        <v>0.0266458722849165</v>
       </c>
       <c r="T5">
-        <v>0.002086122877462859</v>
+        <v>0.02225014072568223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H6">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I6">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J6">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,27 +815,27 @@
         <v>0.434689</v>
       </c>
       <c r="O6">
-        <v>0.05580786919855329</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P6">
-        <v>0.08143932616666613</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q6">
-        <v>9.042679117051444</v>
+        <v>24.92188412905055</v>
       </c>
       <c r="R6">
-        <v>81.384112053463</v>
+        <v>224.296957161455</v>
       </c>
       <c r="S6">
-        <v>0.004714413167706533</v>
+        <v>0.1387941359678123</v>
       </c>
       <c r="T6">
-        <v>0.007746844821977967</v>
+        <v>0.1738461978742259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H7">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,33 +871,33 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>2.392918</v>
+        <v>0.0766655</v>
       </c>
       <c r="N7">
-        <v>4.785836</v>
+        <v>0.153331</v>
       </c>
       <c r="O7">
-        <v>0.921649648922773</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P7">
-        <v>0.896630140132768</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q7">
-        <v>149.3370406940354</v>
+        <v>13.18631509674083</v>
       </c>
       <c r="R7">
-        <v>896.022244164212</v>
+        <v>79.11789058044501</v>
       </c>
       <c r="S7">
-        <v>0.07785707111366044</v>
+        <v>0.07343679157540435</v>
       </c>
       <c r="T7">
-        <v>0.08529115950814432</v>
+        <v>0.06132202877517706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H8">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I8">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J8">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.058528</v>
+        <v>0.1448963333333333</v>
       </c>
       <c r="N8">
-        <v>0.117056</v>
+        <v>0.434689</v>
       </c>
       <c r="O8">
-        <v>0.02254248187867368</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P8">
-        <v>0.02193053370056585</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q8">
-        <v>8.361433652117332</v>
+        <v>8.062437044366501</v>
       </c>
       <c r="R8">
-        <v>50.16860191270399</v>
+        <v>48.374622266199</v>
       </c>
       <c r="S8">
-        <v>0.004359244909632485</v>
+        <v>0.04490105874713261</v>
       </c>
       <c r="T8">
-        <v>0.004775482144450912</v>
+        <v>0.03749379510541914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H9">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I9">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J9">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.1448963333333333</v>
+        <v>0.0766655</v>
       </c>
       <c r="N9">
-        <v>0.434689</v>
+        <v>0.153331</v>
       </c>
       <c r="O9">
-        <v>0.05580786919855329</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P9">
-        <v>0.08143932616666613</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q9">
-        <v>20.70019610445844</v>
+        <v>4.26588273840525</v>
       </c>
       <c r="R9">
-        <v>186.301764940126</v>
+        <v>17.063530953621</v>
       </c>
       <c r="S9">
-        <v>0.01079207564768564</v>
+        <v>0.02375741359485721</v>
       </c>
       <c r="T9">
-        <v>0.01773381593330733</v>
+        <v>0.0132254579649106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.8621113333333</v>
+        <v>203.386317</v>
       </c>
       <c r="H10">
-        <v>428.586334</v>
+        <v>610.158951</v>
       </c>
       <c r="I10">
-        <v>0.1933791023142199</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J10">
-        <v>0.2177549443006804</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.392918</v>
+        <v>0.1448963333333333</v>
       </c>
       <c r="N10">
-        <v>4.785836</v>
+        <v>0.434689</v>
       </c>
       <c r="O10">
-        <v>0.921649648922773</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P10">
-        <v>0.896630140132768</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q10">
-        <v>341.8573177275373</v>
+        <v>29.46993158347099</v>
       </c>
       <c r="R10">
-        <v>2051.143906365224</v>
+        <v>265.229384251239</v>
       </c>
       <c r="S10">
-        <v>0.1782277817569018</v>
+        <v>0.1641229720023671</v>
       </c>
       <c r="T10">
-        <v>0.1952456462229222</v>
+        <v>0.2055717589758002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.01711450000001</v>
+        <v>203.386317</v>
       </c>
       <c r="H11">
-        <v>106.034229</v>
+        <v>610.158951</v>
       </c>
       <c r="I11">
-        <v>0.07176431814995911</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J11">
-        <v>0.05387357411601602</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.058528</v>
+        <v>0.0766655</v>
       </c>
       <c r="N11">
-        <v>0.117056</v>
+        <v>0.153331</v>
       </c>
       <c r="O11">
-        <v>0.02254248187867368</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P11">
-        <v>0.02193053370056585</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q11">
-        <v>3.102985677456</v>
+        <v>15.5927136859635</v>
       </c>
       <c r="R11">
-        <v>12.411942709824</v>
+        <v>93.556282115781</v>
       </c>
       <c r="S11">
-        <v>0.001617745841430825</v>
+        <v>0.08683842731272799</v>
       </c>
       <c r="T11">
-        <v>0.001181476232721222</v>
+        <v>0.07251281577292827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.01711450000001</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H12">
-        <v>106.034229</v>
+        <v>406.497635</v>
       </c>
       <c r="I12">
-        <v>0.07176431814995911</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J12">
-        <v>0.05387357411601602</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,27 +1187,27 @@
         <v>0.434689</v>
       </c>
       <c r="O12">
-        <v>0.05580786919855329</v>
+        <v>0.6539769560190496</v>
       </c>
       <c r="P12">
-        <v>0.08143932616666613</v>
+        <v>0.7392418625216829</v>
       </c>
       <c r="Q12">
-        <v>7.6819854949635</v>
+        <v>19.63333894005722</v>
       </c>
       <c r="R12">
-        <v>46.09191296978101</v>
+        <v>176.700050460515</v>
       </c>
       <c r="S12">
-        <v>0.004005013680436282</v>
+        <v>0.109341344347718</v>
       </c>
       <c r="T12">
-        <v>0.004387427574198291</v>
+        <v>0.136955188003876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.01711450000001</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H13">
-        <v>106.034229</v>
+        <v>406.497635</v>
       </c>
       <c r="I13">
-        <v>0.07176431814995911</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J13">
-        <v>0.05387357411601602</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,400 +1243,28 @@
         <v>0.5</v>
       </c>
       <c r="M13">
-        <v>2.392918</v>
+        <v>0.0766655</v>
       </c>
       <c r="N13">
-        <v>4.785836</v>
+        <v>0.153331</v>
       </c>
       <c r="O13">
-        <v>0.921649648922773</v>
+        <v>0.3460230439809504</v>
       </c>
       <c r="P13">
-        <v>0.896630140132768</v>
+        <v>0.2607581374783171</v>
       </c>
       <c r="Q13">
-        <v>126.865607595111</v>
+        <v>10.38811481203083</v>
       </c>
       <c r="R13">
-        <v>507.462430380444</v>
+        <v>62.328688872185</v>
       </c>
       <c r="S13">
-        <v>0.066141558628092</v>
+        <v>0.05785314674461496</v>
       </c>
       <c r="T13">
-        <v>0.04830467030909651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>143.783834</v>
-      </c>
-      <c r="H14">
-        <v>431.351502</v>
-      </c>
-      <c r="I14">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J14">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.058528</v>
-      </c>
-      <c r="N14">
-        <v>0.117056</v>
-      </c>
-      <c r="O14">
-        <v>0.02254248187867368</v>
-      </c>
-      <c r="P14">
-        <v>0.02193053370056585</v>
-      </c>
-      <c r="Q14">
-        <v>8.415380236351998</v>
-      </c>
-      <c r="R14">
-        <v>50.49228141811199</v>
-      </c>
-      <c r="S14">
-        <v>0.004387370035358678</v>
-      </c>
-      <c r="T14">
-        <v>0.004806292763835728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>143.783834</v>
-      </c>
-      <c r="H15">
-        <v>431.351502</v>
-      </c>
-      <c r="I15">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J15">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.1448963333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.434689</v>
-      </c>
-      <c r="O15">
-        <v>0.05580786919855329</v>
-      </c>
-      <c r="P15">
-        <v>0.08143932616666613</v>
-      </c>
-      <c r="Q15">
-        <v>20.83375033920866</v>
-      </c>
-      <c r="R15">
-        <v>187.503753052878</v>
-      </c>
-      <c r="S15">
-        <v>0.01086170433126041</v>
-      </c>
-      <c r="T15">
-        <v>0.01784823157479316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>143.783834</v>
-      </c>
-      <c r="H16">
-        <v>431.351502</v>
-      </c>
-      <c r="I16">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J16">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>2.392918</v>
-      </c>
-      <c r="N16">
-        <v>4.785836</v>
-      </c>
-      <c r="O16">
-        <v>0.921649648922773</v>
-      </c>
-      <c r="P16">
-        <v>0.896630140132768</v>
-      </c>
-      <c r="Q16">
-        <v>344.062924487612</v>
-      </c>
-      <c r="R16">
-        <v>2064.377546925672</v>
-      </c>
-      <c r="S16">
-        <v>0.179377677868207</v>
-      </c>
-      <c r="T16">
-        <v>0.1965053387754966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H17">
-        <v>424.850525</v>
-      </c>
-      <c r="I17">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J17">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.058528</v>
-      </c>
-      <c r="N17">
-        <v>0.117056</v>
-      </c>
-      <c r="O17">
-        <v>0.02254248187867368</v>
-      </c>
-      <c r="P17">
-        <v>0.02193053370056585</v>
-      </c>
-      <c r="Q17">
-        <v>8.288550509066665</v>
-      </c>
-      <c r="R17">
-        <v>49.73130305439999</v>
-      </c>
-      <c r="S17">
-        <v>0.004321247182979331</v>
-      </c>
-      <c r="T17">
-        <v>0.004733856250764393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H18">
-        <v>424.850525</v>
-      </c>
-      <c r="I18">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J18">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.1448963333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.434689</v>
-      </c>
-      <c r="O18">
-        <v>0.05580786919855329</v>
-      </c>
-      <c r="P18">
-        <v>0.08143932616666613</v>
-      </c>
-      <c r="Q18">
-        <v>20.51976109574722</v>
-      </c>
-      <c r="R18">
-        <v>184.677849861725</v>
-      </c>
-      <c r="S18">
-        <v>0.01069800560826785</v>
-      </c>
-      <c r="T18">
-        <v>0.01757923762804575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H19">
-        <v>424.850525</v>
-      </c>
-      <c r="I19">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J19">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-      <c r="M19">
-        <v>2.392918</v>
-      </c>
-      <c r="N19">
-        <v>4.785836</v>
-      </c>
-      <c r="O19">
-        <v>0.921649648922773</v>
-      </c>
-      <c r="P19">
-        <v>0.896630140132768</v>
-      </c>
-      <c r="Q19">
-        <v>338.8774895273166</v>
-      </c>
-      <c r="R19">
-        <v>2033.2649371639</v>
-      </c>
-      <c r="S19">
-        <v>0.176674244235247</v>
-      </c>
-      <c r="T19">
-        <v>0.1935437710474753</v>
+        <v>0.04830919561300681</v>
       </c>
     </row>
   </sheetData>
